--- a/Multithread/workers.xlsx
+++ b/Multithread/workers.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -361,13 +361,13 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -378,13 +378,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -395,13 +395,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
